--- a/section_configuration_test.xlsx
+++ b/section_configuration_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antig\PycharmProjects\sectionanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA438961-9ECA-482F-AC89-2C298661295F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4B3867-FC60-44BD-A089-FC5D2E988122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16200" windowHeight="14010" xr2:uid="{27A2817C-29E6-4082-BE69-85AF0A43C5BD}"/>
+    <workbookView xWindow="2730" yWindow="720" windowWidth="19845" windowHeight="15480" xr2:uid="{27A2817C-29E6-4082-BE69-85AF0A43C5BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>Section size</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>number of reinf total</t>
+  </si>
+  <si>
+    <t>450x450</t>
+  </si>
+  <si>
+    <t>325x325</t>
+  </si>
+  <si>
+    <t>300x300</t>
   </si>
 </sst>
 </file>
@@ -203,6 +212,7 @@
       <sheetName val="600x600"/>
       <sheetName val="600x600 (2)"/>
       <sheetName val="Sheet4"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -213,35 +223,98 @@
           <cell r="B41">
             <v>-7132200</v>
           </cell>
+          <cell r="E41">
+            <v>-4210770</v>
+          </cell>
+          <cell r="H41">
+            <v>-1302440</v>
+          </cell>
+          <cell r="K41">
+            <v>-1989480</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="B42">
             <v>55680</v>
           </cell>
+          <cell r="E42">
+            <v>50030</v>
+          </cell>
+          <cell r="H42">
+            <v>-27750</v>
+          </cell>
+          <cell r="K42">
+            <v>-760</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="B43">
             <v>-16700</v>
           </cell>
+          <cell r="E43">
+            <v>-26770</v>
+          </cell>
+          <cell r="H43">
+            <v>13390</v>
+          </cell>
+          <cell r="K43">
+            <v>-60</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="B44">
             <v>-11752.820014953613</v>
           </cell>
+          <cell r="E44">
+            <v>-18854.909896850586</v>
+          </cell>
+          <cell r="H44">
+            <v>9512.3147964477539</v>
+          </cell>
+          <cell r="K44">
+            <v>-17.368508502840996</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="B45">
             <v>83160</v>
           </cell>
+          <cell r="E45">
+            <v>63790</v>
+          </cell>
+          <cell r="H45">
+            <v>3550</v>
+          </cell>
+          <cell r="K45">
+            <v>28470</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="B46">
             <v>-68720</v>
           </cell>
+          <cell r="E46">
+            <v>-28830</v>
+          </cell>
+          <cell r="H46">
+            <v>-1000</v>
+          </cell>
+          <cell r="K46">
+            <v>-13580</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="B47">
             <v>-48891.349792480469</v>
+          </cell>
+          <cell r="E47">
+            <v>-20590.471267700195</v>
+          </cell>
+          <cell r="H47">
+            <v>-758.80372524261475</v>
+          </cell>
+          <cell r="K47">
+            <v>-9643.8322067260742</v>
           </cell>
         </row>
         <row r="59">
@@ -283,6 +356,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -585,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09352952-D96B-4F9D-B53B-1A42A9C05A0C}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +872,7 @@
         <v>20</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3" si="0">50*10^6</f>
+        <f t="shared" ref="Q3:Q6" si="0">50*10^6</f>
         <v>50000000</v>
       </c>
       <c r="R3" s="1">
@@ -901,6 +975,438 @@
       <c r="Y4">
         <f>[1]Internal_forces!$B$47</f>
         <v>-48891.349792480469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>3.6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>0.15</v>
+      </c>
+      <c r="J5">
+        <f>IF(K5=2,4,IF(K5=3,8,IF(K5=4,12,IF(K5=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>50000000</v>
+      </c>
+      <c r="R5" s="1">
+        <v>35000000000</v>
+      </c>
+      <c r="S5">
+        <f>ABS([1]Internal_forces!$D$59)</f>
+        <v>4222650</v>
+      </c>
+      <c r="T5">
+        <f>[1]Internal_forces!$D$60</f>
+        <v>6830</v>
+      </c>
+      <c r="U5">
+        <f>[1]Internal_forces!$D$61</f>
+        <v>-3800</v>
+      </c>
+      <c r="V5">
+        <f>[1]Internal_forces!$D$62</f>
+        <v>4774.5170593261719</v>
+      </c>
+      <c r="W5">
+        <f>[1]Internal_forces!$D$63</f>
+        <v>-160200</v>
+      </c>
+      <c r="X5">
+        <f>[1]Internal_forces!$D$64</f>
+        <v>158580</v>
+      </c>
+      <c r="Y5">
+        <f>[1]Internal_forces!$D$65</f>
+        <v>-113395.20263671875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>3.6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <f>IF(K6=2,4,IF(K6=3,8,IF(K6=4,12,IF(K6=5,16))))</f>
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>50000000</v>
+      </c>
+      <c r="R6" s="1">
+        <v>35000000000</v>
+      </c>
+      <c r="S6">
+        <f>ABS([1]Internal_forces!$D$59)</f>
+        <v>4222650</v>
+      </c>
+      <c r="T6">
+        <f>[1]Internal_forces!$D$60</f>
+        <v>6830</v>
+      </c>
+      <c r="U6">
+        <f>[1]Internal_forces!$D$61</f>
+        <v>-3800</v>
+      </c>
+      <c r="V6">
+        <f>[1]Internal_forces!$D$62</f>
+        <v>4774.5170593261719</v>
+      </c>
+      <c r="W6">
+        <f>[1]Internal_forces!$D$63</f>
+        <v>-160200</v>
+      </c>
+      <c r="X6">
+        <f>[1]Internal_forces!$D$64</f>
+        <v>158580</v>
+      </c>
+      <c r="Y6">
+        <f>[1]Internal_forces!$D$65</f>
+        <v>-113395.20263671875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J10" si="1">IF(K7=2,4,IF(K7=3,8,IF(K7=4,12,IF(K7=5,16))))</f>
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7" si="2">50*10^6</f>
+        <v>50000000</v>
+      </c>
+      <c r="R7" s="1">
+        <v>37000000000</v>
+      </c>
+      <c r="S7">
+        <f>ABS([1]Internal_forces!$B$41)</f>
+        <v>7132200</v>
+      </c>
+      <c r="T7">
+        <f>[1]Internal_forces!$B$42</f>
+        <v>55680</v>
+      </c>
+      <c r="U7">
+        <f>[1]Internal_forces!$B$43</f>
+        <v>-16700</v>
+      </c>
+      <c r="V7">
+        <f>[1]Internal_forces!$B$44</f>
+        <v>-11752.820014953613</v>
+      </c>
+      <c r="W7">
+        <f>[1]Internal_forces!$B$45</f>
+        <v>83160</v>
+      </c>
+      <c r="X7">
+        <f>[1]Internal_forces!$B$46</f>
+        <v>-68720</v>
+      </c>
+      <c r="Y7">
+        <f>[1]Internal_forces!$B$47</f>
+        <v>-48891.349792480469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q10" si="3">50*10^6</f>
+        <v>50000000</v>
+      </c>
+      <c r="R8" s="1">
+        <v>37000000000</v>
+      </c>
+      <c r="S8">
+        <f>ABS([1]Internal_forces!$E$41)</f>
+        <v>4210770</v>
+      </c>
+      <c r="T8">
+        <f>[1]Internal_forces!$E$42</f>
+        <v>50030</v>
+      </c>
+      <c r="U8">
+        <f>[1]Internal_forces!$E$43</f>
+        <v>-26770</v>
+      </c>
+      <c r="V8">
+        <f>[1]Internal_forces!$E$44</f>
+        <v>-18854.909896850586</v>
+      </c>
+      <c r="W8">
+        <f>[1]Internal_forces!$E$45</f>
+        <v>63790</v>
+      </c>
+      <c r="X8">
+        <f>[1]Internal_forces!$E$46</f>
+        <v>-28830</v>
+      </c>
+      <c r="Y8">
+        <f>[1]Internal_forces!$E$47</f>
+        <v>-20590.471267700195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>32</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>50000000</v>
+      </c>
+      <c r="R9" s="1">
+        <v>37000000000</v>
+      </c>
+      <c r="S9">
+        <f>ABS([1]Internal_forces!$H$41)</f>
+        <v>1302440</v>
+      </c>
+      <c r="T9">
+        <f>[1]Internal_forces!$H$42</f>
+        <v>-27750</v>
+      </c>
+      <c r="U9">
+        <f>[1]Internal_forces!$H$43</f>
+        <v>13390</v>
+      </c>
+      <c r="V9">
+        <f>[1]Internal_forces!$H$44</f>
+        <v>9512.3147964477539</v>
+      </c>
+      <c r="W9">
+        <f>[1]Internal_forces!$H$45</f>
+        <v>3550</v>
+      </c>
+      <c r="X9">
+        <f>[1]Internal_forces!$H$46</f>
+        <v>-1000</v>
+      </c>
+      <c r="Y9">
+        <f>[1]Internal_forces!$H$47</f>
+        <v>-758.80372524261475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>50000000</v>
+      </c>
+      <c r="R10" s="1">
+        <v>37000000000</v>
+      </c>
+      <c r="S10">
+        <f>ABS([1]Internal_forces!$K$41)</f>
+        <v>1989480</v>
+      </c>
+      <c r="T10">
+        <f>[1]Internal_forces!$K$42</f>
+        <v>-760</v>
+      </c>
+      <c r="U10">
+        <f>[1]Internal_forces!$K$43</f>
+        <v>-60</v>
+      </c>
+      <c r="V10">
+        <f>[1]Internal_forces!$K$44</f>
+        <v>-17.368508502840996</v>
+      </c>
+      <c r="W10">
+        <f>[1]Internal_forces!$K$45</f>
+        <v>28470</v>
+      </c>
+      <c r="X10">
+        <f>[1]Internal_forces!$K$46</f>
+        <v>-13580</v>
+      </c>
+      <c r="Y10">
+        <f>[1]Internal_forces!$K$47</f>
+        <v>-9643.8322067260742</v>
       </c>
     </row>
   </sheetData>
